--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -623,15 +623,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Дейкстра</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -642,676 +642,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20830549721043101"/>
-                  <c:y val="0.16450211879939589"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>measurements!$B$2:$B$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>816</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1644</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2356</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2760</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3196</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3664</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4164</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4696</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5260</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5856</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6484</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7144</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7836</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8560</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9316</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10924</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11776</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12660</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13576</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14524</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15504</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>16516</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17560</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18636</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19744</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20884</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22056</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>23260</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24496</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25764</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>27064</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>28396</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29760</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31156</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32584</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>34044</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>35536</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>37060</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>38616</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40204</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41824</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43476</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45160</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>46876</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>48624</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>50404</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>52216</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>54060</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>55936</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>57844</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>59784</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61756</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63760</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65796</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67864</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>69964</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>72096</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>74260</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>76456</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>78684</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>80944</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>83236</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>85560</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>87916</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>90304</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>92724</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>95176</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>97660</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>100176</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>102724</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>105304</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>107916</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>110560</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>113236</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>115944</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>118684</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>121456</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>124260</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>127096</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>129964</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>132864</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>135796</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>138760</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>141756</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>measurements!$C$2:$C$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
-                <c:pt idx="0">
-                  <c:v>95.888999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>114.804</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184.16900000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>322.80599999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>614.55399999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>464.67899999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>604.39300000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1268.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1145.252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1492.6790000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1756.3489999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2632.7469999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2632.279</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3422.0830000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4228.768</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5289.9740000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6057.0540000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5596.8010000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8039.0940000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8163.393</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10499.396000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9132.8459999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11727.016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13837.513999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15588.861000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16991.914000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18099.981</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19241.763999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18391.705000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20713.375</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25125.184000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24390.454000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26797.550999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33904.838000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35819.493000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34465.082000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35839.321000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>35317.195</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43421.773000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>46716.012000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50072.671000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>47269.483999999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>52398.091999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>57948.029000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>58846.792000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>62716.235000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>85982.582999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>69295.941999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>72239.108999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>81669.941000000006</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>93318.054000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>100647.571</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>107048.181</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>111346.505</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>107390.24800000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>114561.08900000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>122171.29700000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>134132.66200000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>167153.41</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>134990.242</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>137567.58600000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>164006.772</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>185468.62899999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>187437.22899999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>187396.00599999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>205535.03099999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>186103.34700000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>196273.076</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>211071.50399999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>230297.133</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>234660.636</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>274474.73700000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>243682.666</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>255444.80499999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>267687.94900000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>273560.62900000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>271781.25799999997</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>270388.44699999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>299526.00099999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>311584.397</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>318682.60499999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>357625.50599999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>339898.48100000003</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>352339.092</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>413947.19</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>381529.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>390456.66</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>394088.33199999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>456543.15899999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>421506.75699999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>430297.45199999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>452257.06699999998</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>464069.10399999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>548296.49399999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>A*</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1610,291 +945,905 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>measurements!$D$2:$D$95</c:f>
+              <c:f>measurements!$G$2:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
                 <c:pt idx="0">
-                  <c:v>79.320999999999998</c:v>
+                  <c:v>5.8180000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.498999999999995</c:v>
+                  <c:v>6.6131999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.38900000000001</c:v>
+                  <c:v>0.117118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>258.35899999999998</c:v>
+                  <c:v>0.16261800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440.86700000000002</c:v>
+                  <c:v>0.352879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>509.60300000000001</c:v>
+                  <c:v>0.40190399999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>439.858</c:v>
+                  <c:v>0.78034800000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1068.845</c:v>
+                  <c:v>0.99943199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1189.682</c:v>
+                  <c:v>0.85190500000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1287.865</c:v>
+                  <c:v>0.88430399999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1373.931</c:v>
+                  <c:v>1.1423700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1887.73</c:v>
+                  <c:v>1.4949950000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1967.4</c:v>
+                  <c:v>1.6967380000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2363.1709999999998</c:v>
+                  <c:v>2.7290329999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3064.645</c:v>
+                  <c:v>3.0216859999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3345.8420000000001</c:v>
+                  <c:v>4.1584130000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4214.4790000000003</c:v>
+                  <c:v>4.4465760000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4007.8809999999999</c:v>
+                  <c:v>5.0104329999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5465.393</c:v>
+                  <c:v>5.0675359999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5251.8760000000002</c:v>
+                  <c:v>7.0350270000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7339.4229999999998</c:v>
+                  <c:v>6.9254749999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6115.2809999999999</c:v>
+                  <c:v>9.2008620000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7754.2539999999999</c:v>
+                  <c:v>7.9134419999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9503.5730000000003</c:v>
+                  <c:v>11.652473000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10292.290999999999</c:v>
+                  <c:v>11.104570000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10872.489</c:v>
+                  <c:v>14.560687</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11414.398999999999</c:v>
+                  <c:v>13.414346</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11798.262000000001</c:v>
+                  <c:v>17.202461</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17401.079000000002</c:v>
+                  <c:v>20.489460999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13342.281999999999</c:v>
+                  <c:v>18.922234</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15535.246999999999</c:v>
+                  <c:v>18.476628000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15457.491</c:v>
+                  <c:v>21.262197</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16365.442999999999</c:v>
+                  <c:v>25.195523000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20664.776999999998</c:v>
+                  <c:v>28.917553000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22575.493999999999</c:v>
+                  <c:v>34.398653000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21975.597000000002</c:v>
+                  <c:v>36.383218999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22492.624</c:v>
+                  <c:v>32.957639999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>33656.171000000002</c:v>
+                  <c:v>35.664596000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27619.45</c:v>
+                  <c:v>39.378298999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27239.785</c:v>
+                  <c:v>46.320858000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30861.021000000001</c:v>
+                  <c:v>47.332704</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29225.008999999998</c:v>
+                  <c:v>50.255453000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32437.816999999999</c:v>
+                  <c:v>53.770992999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36564.004000000001</c:v>
+                  <c:v>55.783338000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34212.071000000004</c:v>
+                  <c:v>56.907169000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41084.379999999997</c:v>
+                  <c:v>57.880533999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43391.737999999998</c:v>
+                  <c:v>77.352194999999995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42661.392999999996</c:v>
+                  <c:v>76.425837000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43350.616999999998</c:v>
+                  <c:v>95.937603999999993</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49526.42</c:v>
+                  <c:v>87.775904999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55061.457000000002</c:v>
+                  <c:v>84.766503</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>56921.260999999999</c:v>
+                  <c:v>92.704313999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>63837.046000000002</c:v>
+                  <c:v>100.964681</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88513.09</c:v>
+                  <c:v>125.357984</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>60060.714</c:v>
+                  <c:v>107.353196</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>63232.252</c:v>
+                  <c:v>114.663937</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>68922.142999999996</c:v>
+                  <c:v>122.824703</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>70678.899000000005</c:v>
+                  <c:v>128.16843600000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>73513.979000000007</c:v>
+                  <c:v>135.665503</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>74953.747000000003</c:v>
+                  <c:v>144.51512199999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>78186.178</c:v>
+                  <c:v>151.78133800000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>89510.430999999997</c:v>
+                  <c:v>163.36285699999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100400.943</c:v>
+                  <c:v>173.175546</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>99953.659</c:v>
+                  <c:v>184.395973</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>141899.48000000001</c:v>
+                  <c:v>201.842727</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>106939.424</c:v>
+                  <c:v>213.831231</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>98244.013000000006</c:v>
+                  <c:v>229.01506900000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>99882.422000000006</c:v>
+                  <c:v>241.51828</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>109461.94</c:v>
+                  <c:v>254.37079499999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>121538.861</c:v>
+                  <c:v>283.69847600000003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>123092.216</c:v>
+                  <c:v>278.55016499999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>128809.872</c:v>
+                  <c:v>297.82738799999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>127778.137</c:v>
+                  <c:v>312.00826899999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>136640.163</c:v>
+                  <c:v>326.89016400000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>151134.00899999999</c:v>
+                  <c:v>334.41672499999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>145654.03899999999</c:v>
+                  <c:v>357.53106400000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>142988.269</c:v>
+                  <c:v>358.95623599999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>160372.95600000001</c:v>
+                  <c:v>391.07923699999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>157344.48699999999</c:v>
+                  <c:v>423.39928700000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>162276.394</c:v>
+                  <c:v>413.74555099999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>166387.20699999999</c:v>
+                  <c:v>427.88356399999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>173423.23300000001</c:v>
+                  <c:v>477.92591399999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>177437.75200000001</c:v>
+                  <c:v>468.83247699999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>183526.83199999999</c:v>
+                  <c:v>517.65767500000004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>195905.18100000001</c:v>
+                  <c:v>545.50459599999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>197390.242</c:v>
+                  <c:v>548.17069100000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>205671.59299999999</c:v>
+                  <c:v>560.92409699999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>207909.495</c:v>
+                  <c:v>590.11699999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>212778.13099999999</c:v>
+                  <c:v>590.78189099999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>219809.905</c:v>
+                  <c:v>603.61515299999996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>225145.40700000001</c:v>
+                  <c:v>647.58042599999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>232762.853</c:v>
+                  <c:v>657.02618500000005</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>243823.20499999999</c:v>
+                  <c:v>682.59106499999996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>257051.49</c:v>
+                  <c:v>707.82632100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>А*</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>measurements!$B$2:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5260</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5856</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7836</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8560</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12660</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13576</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14524</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15504</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16516</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17560</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18636</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19744</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20884</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22056</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23260</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24496</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25764</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27064</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28396</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29760</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31156</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32584</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34044</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37060</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41824</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45160</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46876</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48624</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50404</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52216</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>54060</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55936</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57844</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59784</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61756</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63760</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65796</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67864</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72096</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74260</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>76456</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78684</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80944</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>83236</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>85560</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87916</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>90304</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>92724</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>95176</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>97660</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100176</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>102724</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>105304</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>107916</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>110560</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>113236</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>115944</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>118684</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>121456</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>124260</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>127096</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>129964</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>132864</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>135796</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>138760</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>141756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>measurements!$H$2:$H$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>4.2358E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8083000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.104549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13755400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28574300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36832300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54305400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68430400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67056499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63118200000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78966599999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.139497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2917590000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7801119999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.225241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8878010000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8861889999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3429099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5082080000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6728310000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7616990000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9139290000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1393649999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6092199999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0921599999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.2952069999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5064620000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.023467</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.629536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.916320000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.052220999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.11843</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.211802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.763307000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.731501000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.310670999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.730854000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.551831</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.565379</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.323384999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.869375000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.646581999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.825714000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.865264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.618395</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.145204</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.812461999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.643920000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43.689945999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.113911000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.280146999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.162044999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.133319999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57.533648999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.331505999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.657100999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67.993047000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69.348152999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72.755639000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>79.935040000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>83.659380999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>84.961415000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91.995732000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>94.776437999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99.775816000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104.100809</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>112.309623</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>120.19169599999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>124.593531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>134.46882299999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>139.460891</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>142.52643499999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>150.00240400000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>158.65608399999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163.41429099999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>174.39779300000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174.909729</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>178.106966</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>199.97318000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>185.833776</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>192.894508</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>201.59152399999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>213.16915900000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>232.562297</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>273.55397099999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>244.65482299999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>251.43539699999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>259.86667599999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>264.83392199999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>315.38574899999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>297.66064499999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>288.34586300000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>306.57424900000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>312.05435999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,11 +1858,1271 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181327280"/>
-        <c:axId val="181327840"/>
+        <c:axId val="183174032"/>
+        <c:axId val="183174592"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Дейкстра old</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>measurements!$B$2:$B$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="94"/>
+                      <c:pt idx="0">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>424</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>604</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>816</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1060</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1336</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1644</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1984</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2356</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2760</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3196</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3664</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4164</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4696</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5260</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5856</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6484</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7144</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7836</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8560</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9316</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>10104</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10924</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11776</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12660</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>13576</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>14524</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>15504</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>16516</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>17560</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>18636</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>19744</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>20884</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>22056</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>23260</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>24496</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>25764</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>27064</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>28396</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>29760</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>31156</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>32584</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>34044</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>35536</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>37060</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>38616</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>40204</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>41824</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43476</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>45160</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>46876</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>48624</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>50404</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>52216</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>54060</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>55936</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>57844</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>59784</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61756</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63760</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>65796</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>67864</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>69964</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>72096</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>74260</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>76456</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>78684</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>80944</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>83236</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>85560</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>87916</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>90304</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>92724</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>95176</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>97660</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>100176</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>102724</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>105304</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>107916</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>110560</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>113236</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>115944</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>118684</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>121456</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>124260</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>127096</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>129964</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>132864</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>135796</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>138760</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>141756</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>measurements!$C$2:$C$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="94"/>
+                      <c:pt idx="0">
+                        <c:v>9.5889000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.114804</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.184169</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.32280599999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.61455400000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.46467900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.60439299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2682599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1452519999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.4926790000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.7563489999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.6327470000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.632279</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.4220830000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.2287679999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5.289974</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6.0570539999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5.5968010000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8.0390940000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.1633929999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>10.499396000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9.1328460000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>11.727016000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>13.837514000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>15.588861</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>16.991914000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>18.099981</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>19.241764</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>18.391705000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>20.713374999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>25.125184000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>24.390453999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>26.797550999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33.904837999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35.819493000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>34.465082000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>35.839320999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>35.317194999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43.421773000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>46.716011999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>50.072671</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>47.269483999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>52.398091999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>57.948028999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>58.846792000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>62.716234999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>85.982583000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>69.295941999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>72.239108999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>81.669940999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>93.318054000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>100.647571</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>107.048181</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>111.34650499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>107.390248</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>114.561089</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>122.171297</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>134.13266200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>167.15341000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>134.99024199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>137.56758600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>164.00677200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>185.46862899999999</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>187.437229</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>187.396006</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>205.535031</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>186.10334700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>196.273076</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>211.071504</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>230.297133</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>234.66063600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>274.474737</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>243.68266600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>255.444805</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>267.687949</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>273.56062900000001</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>271.78125799999998</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>270.38844699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>299.52600100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>311.58439700000002</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>318.68260500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>357.62550599999997</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>339.898481</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>352.33909199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>413.94718999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>381.5292</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>390.45666</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>394.08833199999998</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>456.543159</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>421.50675699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>430.29745200000002</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>452.25706700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>464.06910399999998</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>548.29649400000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>A* old</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>measurements!$B$2:$B$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="94"/>
+                      <c:pt idx="0">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>424</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>604</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>816</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1060</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1336</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1644</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1984</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2356</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2760</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3196</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3664</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4164</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4696</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5260</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5856</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6484</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7144</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7836</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8560</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9316</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>10104</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10924</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11776</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12660</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>13576</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>14524</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>15504</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>16516</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>17560</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>18636</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>19744</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>20884</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>22056</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>23260</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>24496</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>25764</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>27064</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>28396</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>29760</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>31156</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>32584</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>34044</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>35536</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>37060</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>38616</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>40204</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>41824</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43476</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>45160</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>46876</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>48624</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>50404</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>52216</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>54060</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>55936</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>57844</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>59784</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61756</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63760</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>65796</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>67864</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>69964</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>72096</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>74260</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>76456</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>78684</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>80944</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>83236</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>85560</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>87916</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>90304</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>92724</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>95176</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>97660</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>100176</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>102724</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>105304</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>107916</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>110560</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>113236</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>115944</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>118684</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>121456</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>124260</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>127096</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>129964</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>132864</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>135796</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>138760</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>141756</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>measurements!$D$2:$D$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="94"/>
+                      <c:pt idx="0">
+                        <c:v>7.9321000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9499E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.159389</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.25835900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.44086700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.50960300000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.43985800000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.068845</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1896819999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.287865</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.373931</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.8877299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.9674</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.3631709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.0646450000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.3458420000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.2144789999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.0078810000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5.4653929999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.2518760000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.339423</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6.1152810000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7.7542540000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9.5035729999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>10.292291000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10.872489</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11.414399</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>11.798261999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>17.401078999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>13.342282000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>15.535247</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>15.457490999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>16.365442999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>20.664777000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>22.575493999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>21.975597</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>22.492623999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>33.656171000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>27.619450000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>27.239785000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>30.861021000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>29.225009</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>32.437817000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>36.564003999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>34.212071000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>41.084380000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43.391737999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>42.661392999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43.350617</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49.526420000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>55.061456999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>56.921261000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>63.837046000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>88.513090000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>60.060713999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>63.232252000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>68.922143000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>70.678899000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>73.513979000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>74.953747000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>78.186177999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>89.510430999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>100.400943</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>99.953659000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>141.89948000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>106.939424</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>98.244012999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>99.882422000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>109.46194</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>121.538861</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>123.09221599999999</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>128.80987200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>127.778137</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>136.640163</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>151.13400899999999</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>145.65403900000001</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>142.988269</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>160.37295599999999</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>157.34448699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>162.27639400000001</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>166.38720699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>173.42323300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>177.43775199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>183.52683200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>195.905181</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>197.390242</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>205.671593</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>207.90949499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>212.778131</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>219.80990499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>225.14540700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>232.76285300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>243.823205</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>257.05149</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181327280"/>
+        <c:axId val="183174032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,12 +3235,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181327840"/>
+        <c:crossAx val="183174592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181327840"/>
+        <c:axId val="183174592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +3281,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время выполнения, мкс</a:t>
+                  <a:t>Время выполнения, мс</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2144,7 +3353,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181327280"/>
+        <c:crossAx val="183174032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2162,10 +3371,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35693702530008042"/>
-          <c:y val="0.79315895858478125"/>
-          <c:w val="0.30591017019669942"/>
-          <c:h val="0.16759893840085635"/>
+          <c:x val="0.37875913666322092"/>
+          <c:y val="0.84281763662223785"/>
+          <c:w val="9.5501041048086141E-2"/>
+          <c:h val="9.807690239837337E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2794,16 +4003,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>414336</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3088,10 +4297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,9 +4309,12 @@
     <col min="3" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3122,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3131,12 +4343,12 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>E2/1000</f>
-        <v>95.888999999999996</v>
+        <f>E2/1000000</f>
+        <v>9.5889000000000002E-2</v>
       </c>
       <c r="D2">
-        <f>F2/1000</f>
-        <v>79.320999999999998</v>
+        <f>F2/1000000</f>
+        <v>7.9321000000000003E-2</v>
       </c>
       <c r="E2">
         <v>95889</v>
@@ -3144,8 +4356,22 @@
       <c r="F2">
         <v>79321</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>I2/1000000</f>
+        <v>5.8180000000000003E-2</v>
+      </c>
+      <c r="H2">
+        <f>J2/1000000</f>
+        <v>4.2358E-2</v>
+      </c>
+      <c r="I2">
+        <v>58180</v>
+      </c>
+      <c r="J2">
+        <v>42358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -3154,12 +4380,12 @@
         <v>76</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">E3/1000</f>
-        <v>114.804</v>
+        <f t="shared" ref="C3:C66" si="0">E3/1000000</f>
+        <v>0.114804</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">F3/1000</f>
-        <v>79.498999999999995</v>
+        <f t="shared" ref="D3:D66" si="1">F3/1000000</f>
+        <v>7.9499E-2</v>
       </c>
       <c r="E3">
         <v>114804</v>
@@ -3167,22 +4393,36 @@
       <c r="F3">
         <v>79499</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">I3/1000000</f>
+        <v>6.6131999999999996E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">J3/1000000</f>
+        <v>5.8083000000000003E-2</v>
+      </c>
+      <c r="I3">
+        <v>66132</v>
+      </c>
+      <c r="J3">
+        <v>58083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="2">A4*A4-A4+4</f>
+        <f t="shared" ref="B4:B67" si="4">A4*A4-A4+4</f>
         <v>160</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>184.16900000000001</v>
+        <v>0.184169</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>159.38900000000001</v>
+        <v>0.159389</v>
       </c>
       <c r="E4">
         <v>184169</v>
@@ -3190,22 +4430,36 @@
       <c r="F4">
         <v>159389</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.117118</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.104549</v>
+      </c>
+      <c r="I4">
+        <v>117118</v>
+      </c>
+      <c r="J4">
+        <v>104549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>322.80599999999998</v>
+        <v>0.32280599999999998</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>258.35899999999998</v>
+        <v>0.25835900000000001</v>
       </c>
       <c r="E5">
         <v>322806</v>
@@ -3213,22 +4467,36 @@
       <c r="F5">
         <v>258359</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.16261800000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.13755400000000001</v>
+      </c>
+      <c r="I5">
+        <v>162618</v>
+      </c>
+      <c r="J5">
+        <v>137554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>424</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>614.55399999999997</v>
+        <v>0.61455400000000004</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>440.86700000000002</v>
+        <v>0.44086700000000001</v>
       </c>
       <c r="E6">
         <v>614554</v>
@@ -3236,22 +4504,36 @@
       <c r="F6">
         <v>440867</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.352879</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.28574300000000002</v>
+      </c>
+      <c r="I6">
+        <v>352879</v>
+      </c>
+      <c r="J6">
+        <v>285743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>604</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>464.67899999999997</v>
+        <v>0.46467900000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>509.60300000000001</v>
+        <v>0.50960300000000003</v>
       </c>
       <c r="E7">
         <v>464679</v>
@@ -3259,22 +4541,36 @@
       <c r="F7">
         <v>509603</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.40190399999999998</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.36832300000000001</v>
+      </c>
+      <c r="I7">
+        <v>401904</v>
+      </c>
+      <c r="J7">
+        <v>368323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>29</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>816</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>604.39300000000003</v>
+        <v>0.60439299999999996</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>439.858</v>
+        <v>0.43985800000000003</v>
       </c>
       <c r="E8">
         <v>604393</v>
@@ -3282,22 +4578,36 @@
       <c r="F8">
         <v>439858</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.78034800000000004</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.54305400000000004</v>
+      </c>
+      <c r="I8">
+        <v>780348</v>
+      </c>
+      <c r="J8">
+        <v>543054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>33</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1060</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1268.26</v>
+        <v>1.2682599999999999</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1068.845</v>
+        <v>1.068845</v>
       </c>
       <c r="E9">
         <v>1268260</v>
@@ -3305,22 +4615,36 @@
       <c r="F9">
         <v>1068845</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.99943199999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.68430400000000002</v>
+      </c>
+      <c r="I9">
+        <v>999432</v>
+      </c>
+      <c r="J9">
+        <v>684304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>37</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1336</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1145.252</v>
+        <v>1.1452519999999999</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1189.682</v>
+        <v>1.1896819999999999</v>
       </c>
       <c r="E10">
         <v>1145252</v>
@@ -3328,22 +4652,36 @@
       <c r="F10">
         <v>1189682</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.85190500000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.67056499999999997</v>
+      </c>
+      <c r="I10">
+        <v>851905</v>
+      </c>
+      <c r="J10">
+        <v>670565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>41</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1644</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1492.6790000000001</v>
+        <v>1.4926790000000001</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1287.865</v>
+        <v>1.287865</v>
       </c>
       <c r="E11">
         <v>1492679</v>
@@ -3351,22 +4689,36 @@
       <c r="F11">
         <v>1287865</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.88430399999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.63118200000000002</v>
+      </c>
+      <c r="I11">
+        <v>884304</v>
+      </c>
+      <c r="J11">
+        <v>631182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1984</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1756.3489999999999</v>
+        <v>1.7563489999999999</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1373.931</v>
+        <v>1.373931</v>
       </c>
       <c r="E12">
         <v>1756349</v>
@@ -3374,22 +4726,36 @@
       <c r="F12">
         <v>1373931</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1.1423700000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.78966599999999998</v>
+      </c>
+      <c r="I12">
+        <v>1142370</v>
+      </c>
+      <c r="J12">
+        <v>789666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>49</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2356</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2632.7469999999998</v>
+        <v>2.6327470000000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1887.73</v>
+        <v>1.8877299999999999</v>
       </c>
       <c r="E13">
         <v>2632747</v>
@@ -3397,22 +4763,36 @@
       <c r="F13">
         <v>1887730</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.4949950000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1.139497</v>
+      </c>
+      <c r="I13">
+        <v>1494995</v>
+      </c>
+      <c r="J13">
+        <v>1139497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2760</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>2632.279</v>
+        <v>2.632279</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1967.4</v>
+        <v>1.9674</v>
       </c>
       <c r="E14">
         <v>2632279</v>
@@ -3420,22 +4800,36 @@
       <c r="F14">
         <v>1967400</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.6967380000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1.2917590000000001</v>
+      </c>
+      <c r="I14">
+        <v>1696738</v>
+      </c>
+      <c r="J14">
+        <v>1291759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3196</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>3422.0830000000001</v>
+        <v>3.4220830000000002</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2363.1709999999998</v>
+        <v>2.3631709999999999</v>
       </c>
       <c r="E15">
         <v>3422083</v>
@@ -3443,22 +4837,36 @@
       <c r="F15">
         <v>2363171</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.7290329999999998</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1.7801119999999999</v>
+      </c>
+      <c r="I15">
+        <v>2729033</v>
+      </c>
+      <c r="J15">
+        <v>1780112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>61</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3664</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>4228.768</v>
+        <v>4.2287679999999996</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3064.645</v>
+        <v>3.0646450000000001</v>
       </c>
       <c r="E16">
         <v>4228768</v>
@@ -3466,22 +4874,36 @@
       <c r="F16">
         <v>3064645</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3.0216859999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>2.225241</v>
+      </c>
+      <c r="I16">
+        <v>3021686</v>
+      </c>
+      <c r="J16">
+        <v>2225241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4164</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5289.9740000000002</v>
+        <v>5.289974</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3345.8420000000001</v>
+        <v>3.3458420000000002</v>
       </c>
       <c r="E17">
         <v>5289974</v>
@@ -3489,22 +4911,36 @@
       <c r="F17">
         <v>3345842</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.1584130000000004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>2.8878010000000001</v>
+      </c>
+      <c r="I17">
+        <v>4158413</v>
+      </c>
+      <c r="J17">
+        <v>2887801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4696</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6057.0540000000001</v>
+        <v>6.0570539999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>4214.4790000000003</v>
+        <v>4.2144789999999999</v>
       </c>
       <c r="E18">
         <v>6057054</v>
@@ -3512,22 +4948,36 @@
       <c r="F18">
         <v>4214479</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4.4465760000000003</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>2.8861889999999999</v>
+      </c>
+      <c r="I18">
+        <v>4446576</v>
+      </c>
+      <c r="J18">
+        <v>2886189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5260</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>5596.8010000000004</v>
+        <v>5.5968010000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>4007.8809999999999</v>
+        <v>4.0078810000000002</v>
       </c>
       <c r="E19">
         <v>5596801</v>
@@ -3535,22 +4985,36 @@
       <c r="F19">
         <v>4007881</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>5.0104329999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>3.3429099999999998</v>
+      </c>
+      <c r="I19">
+        <v>5010433</v>
+      </c>
+      <c r="J19">
+        <v>3342910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>77</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5856</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>8039.0940000000001</v>
+        <v>8.0390940000000004</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>5465.393</v>
+        <v>5.4653929999999997</v>
       </c>
       <c r="E20">
         <v>8039094</v>
@@ -3558,22 +5022,36 @@
       <c r="F20">
         <v>5465393</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>5.0675359999999996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>3.5082080000000002</v>
+      </c>
+      <c r="I20">
+        <v>5067536</v>
+      </c>
+      <c r="J20">
+        <v>3508208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>81</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6484</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>8163.393</v>
+        <v>8.1633929999999992</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>5251.8760000000002</v>
+        <v>5.2518760000000002</v>
       </c>
       <c r="E21">
         <v>8163393</v>
@@ -3581,22 +5059,36 @@
       <c r="F21">
         <v>5251876</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>7.0350270000000004</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>4.6728310000000004</v>
+      </c>
+      <c r="I21">
+        <v>7035027</v>
+      </c>
+      <c r="J21">
+        <v>4672831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>85</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7144</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>10499.396000000001</v>
+        <v>10.499396000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>7339.4229999999998</v>
+        <v>7.339423</v>
       </c>
       <c r="E22">
         <v>10499396</v>
@@ -3604,22 +5096,36 @@
       <c r="F22">
         <v>7339423</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>6.9254749999999996</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>4.7616990000000001</v>
+      </c>
+      <c r="I22">
+        <v>6925475</v>
+      </c>
+      <c r="J22">
+        <v>4761699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>89</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7836</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>9132.8459999999995</v>
+        <v>9.1328460000000007</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>6115.2809999999999</v>
+        <v>6.1152810000000004</v>
       </c>
       <c r="E23">
         <v>9132846</v>
@@ -3627,22 +5133,36 @@
       <c r="F23">
         <v>6115281</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>9.2008620000000008</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>5.9139290000000004</v>
+      </c>
+      <c r="I23">
+        <v>9200862</v>
+      </c>
+      <c r="J23">
+        <v>5913929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>93</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8560</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>11727.016</v>
+        <v>11.727016000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>7754.2539999999999</v>
+        <v>7.7542540000000004</v>
       </c>
       <c r="E24">
         <v>11727016</v>
@@ -3650,22 +5170,36 @@
       <c r="F24">
         <v>7754254</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>7.9134419999999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>5.1393649999999997</v>
+      </c>
+      <c r="I24">
+        <v>7913442</v>
+      </c>
+      <c r="J24">
+        <v>5139365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>97</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9316</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>13837.513999999999</v>
+        <v>13.837514000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>9503.5730000000003</v>
+        <v>9.5035729999999994</v>
       </c>
       <c r="E25">
         <v>13837514</v>
@@ -3673,22 +5207,36 @@
       <c r="F25">
         <v>9503573</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>11.652473000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>7.6092199999999997</v>
+      </c>
+      <c r="I25">
+        <v>11652473</v>
+      </c>
+      <c r="J25">
+        <v>7609220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>101</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10104</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>15588.861000000001</v>
+        <v>15.588861</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>10292.290999999999</v>
+        <v>10.292291000000001</v>
       </c>
       <c r="E26">
         <v>15588861</v>
@@ -3696,22 +5244,36 @@
       <c r="F26">
         <v>10292291</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>11.104570000000001</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>7.0921599999999998</v>
+      </c>
+      <c r="I26">
+        <v>11104570</v>
+      </c>
+      <c r="J26">
+        <v>7092160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>105</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10924</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>16991.914000000001</v>
+        <v>16.991914000000001</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>10872.489</v>
+        <v>10.872489</v>
       </c>
       <c r="E27">
         <v>16991914</v>
@@ -3719,22 +5281,36 @@
       <c r="F27">
         <v>10872489</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>14.560687</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>9.2952069999999996</v>
+      </c>
+      <c r="I27">
+        <v>14560687</v>
+      </c>
+      <c r="J27">
+        <v>9295207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>109</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11776</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>18099.981</v>
+        <v>18.099981</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>11414.398999999999</v>
+        <v>11.414399</v>
       </c>
       <c r="E28">
         <v>18099981</v>
@@ -3742,22 +5318,36 @@
       <c r="F28">
         <v>11414399</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>13.414346</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>8.5064620000000009</v>
+      </c>
+      <c r="I28">
+        <v>13414346</v>
+      </c>
+      <c r="J28">
+        <v>8506462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>113</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12660</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>19241.763999999999</v>
+        <v>19.241764</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>11798.262000000001</v>
+        <v>11.798261999999999</v>
       </c>
       <c r="E29">
         <v>19241764</v>
@@ -3765,22 +5355,36 @@
       <c r="F29">
         <v>11798262</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>17.202461</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>11.023467</v>
+      </c>
+      <c r="I29">
+        <v>17202461</v>
+      </c>
+      <c r="J29">
+        <v>11023467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>117</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13576</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>18391.705000000002</v>
+        <v>18.391705000000002</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>17401.079000000002</v>
+        <v>17.401078999999999</v>
       </c>
       <c r="E30">
         <v>18391705</v>
@@ -3788,22 +5392,36 @@
       <c r="F30">
         <v>17401079</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>20.489460999999999</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>12.629536</v>
+      </c>
+      <c r="I30">
+        <v>20489461</v>
+      </c>
+      <c r="J30">
+        <v>12629536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14524</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>20713.375</v>
+        <v>20.713374999999999</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>13342.281999999999</v>
+        <v>13.342282000000001</v>
       </c>
       <c r="E31">
         <v>20713375</v>
@@ -3811,22 +5429,36 @@
       <c r="F31">
         <v>13342282</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>18.922234</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>11.916320000000001</v>
+      </c>
+      <c r="I31">
+        <v>18922234</v>
+      </c>
+      <c r="J31">
+        <v>11916320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>125</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15504</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>25125.184000000001</v>
+        <v>25.125184000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>15535.246999999999</v>
+        <v>15.535247</v>
       </c>
       <c r="E32">
         <v>25125184</v>
@@ -3834,22 +5466,36 @@
       <c r="F32">
         <v>15535247</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>18.476628000000002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>12.052220999999999</v>
+      </c>
+      <c r="I32">
+        <v>18476628</v>
+      </c>
+      <c r="J32">
+        <v>12052221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>129</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16516</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>24390.454000000002</v>
+        <v>24.390453999999998</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>15457.491</v>
+        <v>15.457490999999999</v>
       </c>
       <c r="E33">
         <v>24390454</v>
@@ -3857,22 +5503,36 @@
       <c r="F33">
         <v>15457491</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>21.262197</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>13.11843</v>
+      </c>
+      <c r="I33">
+        <v>21262197</v>
+      </c>
+      <c r="J33">
+        <v>13118430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>133</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17560</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>26797.550999999999</v>
+        <v>26.797550999999999</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>16365.442999999999</v>
+        <v>16.365442999999999</v>
       </c>
       <c r="E34">
         <v>26797551</v>
@@ -3880,22 +5540,36 @@
       <c r="F34">
         <v>16365443</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>25.195523000000001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>15.211802</v>
+      </c>
+      <c r="I34">
+        <v>25195523</v>
+      </c>
+      <c r="J34">
+        <v>15211802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>137</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18636</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>33904.838000000003</v>
+        <v>33.904837999999998</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>20664.776999999998</v>
+        <v>20.664777000000001</v>
       </c>
       <c r="E35">
         <v>33904838</v>
@@ -3903,22 +5577,36 @@
       <c r="F35">
         <v>20664777</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>28.917553000000002</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>17.763307000000001</v>
+      </c>
+      <c r="I35">
+        <v>28917553</v>
+      </c>
+      <c r="J35">
+        <v>17763307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>141</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19744</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>35819.493000000002</v>
+        <v>35.819493000000001</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>22575.493999999999</v>
+        <v>22.575493999999999</v>
       </c>
       <c r="E36">
         <v>35819493</v>
@@ -3926,22 +5614,36 @@
       <c r="F36">
         <v>22575494</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>34.398653000000003</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>20.731501000000002</v>
+      </c>
+      <c r="I36">
+        <v>34398653</v>
+      </c>
+      <c r="J36">
+        <v>20731501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>145</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20884</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>34465.082000000002</v>
+        <v>34.465082000000002</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>21975.597000000002</v>
+        <v>21.975597</v>
       </c>
       <c r="E37">
         <v>34465082</v>
@@ -3949,22 +5651,36 @@
       <c r="F37">
         <v>21975597</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>36.383218999999997</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>22.310670999999999</v>
+      </c>
+      <c r="I37">
+        <v>36383219</v>
+      </c>
+      <c r="J37">
+        <v>22310671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>149</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22056</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>35839.321000000004</v>
+        <v>35.839320999999998</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>22492.624</v>
+        <v>22.492623999999999</v>
       </c>
       <c r="E38">
         <v>35839321</v>
@@ -3972,22 +5688,36 @@
       <c r="F38">
         <v>22492624</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>32.957639999999998</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>20.730854000000001</v>
+      </c>
+      <c r="I38">
+        <v>32957640</v>
+      </c>
+      <c r="J38">
+        <v>20730854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>153</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23260</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>35317.195</v>
+        <v>35.317194999999998</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>33656.171000000002</v>
+        <v>33.656171000000001</v>
       </c>
       <c r="E39">
         <v>35317195</v>
@@ -3995,22 +5725,36 @@
       <c r="F39">
         <v>33656171</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>35.664596000000003</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>30.551831</v>
+      </c>
+      <c r="I39">
+        <v>35664596</v>
+      </c>
+      <c r="J39">
+        <v>30551831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>157</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24496</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>43421.773000000001</v>
+        <v>43.421773000000002</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>27619.45</v>
+        <v>27.619450000000001</v>
       </c>
       <c r="E40">
         <v>43421773</v>
@@ -4018,22 +5762,36 @@
       <c r="F40">
         <v>27619450</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>39.378298999999998</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>23.565379</v>
+      </c>
+      <c r="I40">
+        <v>39378299</v>
+      </c>
+      <c r="J40">
+        <v>23565379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25764</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>46716.012000000002</v>
+        <v>46.716011999999999</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>27239.785</v>
+        <v>27.239785000000001</v>
       </c>
       <c r="E41">
         <v>46716012</v>
@@ -4041,22 +5799,36 @@
       <c r="F41">
         <v>27239785</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>46.320858000000001</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>26.323384999999998</v>
+      </c>
+      <c r="I41">
+        <v>46320858</v>
+      </c>
+      <c r="J41">
+        <v>26323385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>165</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27064</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>50072.671000000002</v>
+        <v>50.072671</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>30861.021000000001</v>
+        <v>30.861021000000001</v>
       </c>
       <c r="E42">
         <v>50072671</v>
@@ -4064,22 +5836,36 @@
       <c r="F42">
         <v>30861021</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>47.332704</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>27.869375000000002</v>
+      </c>
+      <c r="I42">
+        <v>47332704</v>
+      </c>
+      <c r="J42">
+        <v>27869375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>169</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28396</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>47269.483999999997</v>
+        <v>47.269483999999999</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>29225.008999999998</v>
+        <v>29.225009</v>
       </c>
       <c r="E43">
         <v>47269484</v>
@@ -4087,22 +5873,36 @@
       <c r="F43">
         <v>29225009</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>50.255453000000003</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>28.646581999999999</v>
+      </c>
+      <c r="I43">
+        <v>50255453</v>
+      </c>
+      <c r="J43">
+        <v>28646582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>173</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29760</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>52398.091999999997</v>
+        <v>52.398091999999998</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>32437.816999999999</v>
+        <v>32.437817000000003</v>
       </c>
       <c r="E44">
         <v>52398092</v>
@@ -4110,22 +5910,36 @@
       <c r="F44">
         <v>32437817</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>53.770992999999997</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>31.825714000000001</v>
+      </c>
+      <c r="I44">
+        <v>53770993</v>
+      </c>
+      <c r="J44">
+        <v>31825714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>177</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31156</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>57948.029000000002</v>
+        <v>57.948028999999998</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>36564.004000000001</v>
+        <v>36.564003999999997</v>
       </c>
       <c r="E45">
         <v>57948029</v>
@@ -4133,22 +5947,36 @@
       <c r="F45">
         <v>36564004</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>55.783338000000001</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>31.865264</v>
+      </c>
+      <c r="I45">
+        <v>55783338</v>
+      </c>
+      <c r="J45">
+        <v>31865264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>181</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32584</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>58846.792000000001</v>
+        <v>58.846792000000001</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>34212.071000000004</v>
+        <v>34.212071000000002</v>
       </c>
       <c r="E46">
         <v>58846792</v>
@@ -4156,22 +5984,36 @@
       <c r="F46">
         <v>34212071</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>56.907169000000003</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>33.618395</v>
+      </c>
+      <c r="I46">
+        <v>56907169</v>
+      </c>
+      <c r="J46">
+        <v>33618395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>185</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34044</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>62716.235000000001</v>
+        <v>62.716234999999998</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>41084.379999999997</v>
+        <v>41.084380000000003</v>
       </c>
       <c r="E47">
         <v>62716235</v>
@@ -4179,22 +6021,36 @@
       <c r="F47">
         <v>41084380</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>57.880533999999997</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>35.145204</v>
+      </c>
+      <c r="I47">
+        <v>57880534</v>
+      </c>
+      <c r="J47">
+        <v>35145204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>189</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35536</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>85982.582999999999</v>
+        <v>85.982583000000005</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>43391.737999999998</v>
+        <v>43.391737999999997</v>
       </c>
       <c r="E48">
         <v>85982583</v>
@@ -4202,22 +6058,36 @@
       <c r="F48">
         <v>43391738</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>77.352194999999995</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>43.812461999999996</v>
+      </c>
+      <c r="I48">
+        <v>77352195</v>
+      </c>
+      <c r="J48">
+        <v>43812462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>193</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37060</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>69295.941999999995</v>
+        <v>69.295941999999997</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>42661.392999999996</v>
+        <v>42.661392999999997</v>
       </c>
       <c r="E49">
         <v>69295942</v>
@@ -4225,22 +6095,36 @@
       <c r="F49">
         <v>42661393</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>76.425837000000001</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>44.643920000000001</v>
+      </c>
+      <c r="I49">
+        <v>76425837</v>
+      </c>
+      <c r="J49">
+        <v>44643920</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>197</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38616</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>72239.108999999997</v>
+        <v>72.239108999999999</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>43350.616999999998</v>
+        <v>43.350617</v>
       </c>
       <c r="E50">
         <v>72239109</v>
@@ -4248,22 +6132,36 @@
       <c r="F50">
         <v>43350617</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>95.937603999999993</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>43.689945999999999</v>
+      </c>
+      <c r="I50">
+        <v>95937604</v>
+      </c>
+      <c r="J50">
+        <v>43689946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40204</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>81669.941000000006</v>
+        <v>81.669940999999994</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>49526.42</v>
+        <v>49.526420000000002</v>
       </c>
       <c r="E51">
         <v>81669941</v>
@@ -4271,22 +6169,36 @@
       <c r="F51">
         <v>49526420</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>87.775904999999995</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>50.113911000000002</v>
+      </c>
+      <c r="I51">
+        <v>87775905</v>
+      </c>
+      <c r="J51">
+        <v>50113911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>205</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41824</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>93318.054000000004</v>
+        <v>93.318054000000004</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>55061.457000000002</v>
+        <v>55.061456999999997</v>
       </c>
       <c r="E52">
         <v>93318054</v>
@@ -4294,22 +6206,36 @@
       <c r="F52">
         <v>55061457</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>84.766503</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>47.280146999999999</v>
+      </c>
+      <c r="I52">
+        <v>84766503</v>
+      </c>
+      <c r="J52">
+        <v>47280147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>209</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43476</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>100647.571</v>
+        <v>100.647571</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>56921.260999999999</v>
+        <v>56.921261000000001</v>
       </c>
       <c r="E53">
         <v>100647571</v>
@@ -4317,22 +6243,36 @@
       <c r="F53">
         <v>56921261</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>92.704313999999997</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>51.162044999999999</v>
+      </c>
+      <c r="I53">
+        <v>92704314</v>
+      </c>
+      <c r="J53">
+        <v>51162045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>213</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45160</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>107048.181</v>
+        <v>107.048181</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>63837.046000000002</v>
+        <v>63.837046000000001</v>
       </c>
       <c r="E54">
         <v>107048181</v>
@@ -4340,22 +6280,36 @@
       <c r="F54">
         <v>63837046</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>100.964681</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>55.133319999999998</v>
+      </c>
+      <c r="I54">
+        <v>100964681</v>
+      </c>
+      <c r="J54">
+        <v>55133320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>217</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46876</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>111346.505</v>
+        <v>111.34650499999999</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>88513.09</v>
+        <v>88.513090000000005</v>
       </c>
       <c r="E55">
         <v>111346505</v>
@@ -4363,22 +6317,36 @@
       <c r="F55">
         <v>88513090</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>125.357984</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>57.533648999999997</v>
+      </c>
+      <c r="I55">
+        <v>125357984</v>
+      </c>
+      <c r="J55">
+        <v>57533649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>221</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48624</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>107390.24800000001</v>
+        <v>107.390248</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>60060.714</v>
+        <v>60.060713999999997</v>
       </c>
       <c r="E56">
         <v>107390248</v>
@@ -4386,22 +6354,36 @@
       <c r="F56">
         <v>60060714</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>107.353196</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>60.331505999999997</v>
+      </c>
+      <c r="I56">
+        <v>107353196</v>
+      </c>
+      <c r="J56">
+        <v>60331506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>225</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50404</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>114561.08900000001</v>
+        <v>114.561089</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>63232.252</v>
+        <v>63.232252000000003</v>
       </c>
       <c r="E57">
         <v>114561089</v>
@@ -4409,22 +6391,36 @@
       <c r="F57">
         <v>63232252</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>114.663937</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>60.657100999999997</v>
+      </c>
+      <c r="I57">
+        <v>114663937</v>
+      </c>
+      <c r="J57">
+        <v>60657101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>229</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52216</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>122171.29700000001</v>
+        <v>122.171297</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>68922.142999999996</v>
+        <v>68.922143000000005</v>
       </c>
       <c r="E58">
         <v>122171297</v>
@@ -4432,22 +6428,36 @@
       <c r="F58">
         <v>68922143</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>122.824703</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>67.993047000000004</v>
+      </c>
+      <c r="I58">
+        <v>122824703</v>
+      </c>
+      <c r="J58">
+        <v>67993047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>233</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54060</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>134132.66200000001</v>
+        <v>134.13266200000001</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>70678.899000000005</v>
+        <v>70.678899000000001</v>
       </c>
       <c r="E59">
         <v>134132662</v>
@@ -4455,22 +6465,36 @@
       <c r="F59">
         <v>70678899</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>128.16843600000001</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>69.348152999999996</v>
+      </c>
+      <c r="I59">
+        <v>128168436</v>
+      </c>
+      <c r="J59">
+        <v>69348153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>237</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55936</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>167153.41</v>
+        <v>167.15341000000001</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>73513.979000000007</v>
+        <v>73.513979000000006</v>
       </c>
       <c r="E60">
         <v>167153410</v>
@@ -4478,22 +6502,36 @@
       <c r="F60">
         <v>73513979</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>135.665503</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>72.755639000000002</v>
+      </c>
+      <c r="I60">
+        <v>135665503</v>
+      </c>
+      <c r="J60">
+        <v>72755639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>241</v>
       </c>
       <c r="B61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57844</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>134990.242</v>
+        <v>134.99024199999999</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>74953.747000000003</v>
+        <v>74.953747000000007</v>
       </c>
       <c r="E61">
         <v>134990242</v>
@@ -4501,22 +6539,36 @@
       <c r="F61">
         <v>74953747</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>144.51512199999999</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>79.935040000000001</v>
+      </c>
+      <c r="I61">
+        <v>144515122</v>
+      </c>
+      <c r="J61">
+        <v>79935040</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>245</v>
       </c>
       <c r="B62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59784</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>137567.58600000001</v>
+        <v>137.56758600000001</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>78186.178</v>
+        <v>78.186177999999998</v>
       </c>
       <c r="E62">
         <v>137567586</v>
@@ -4524,22 +6576,36 @@
       <c r="F62">
         <v>78186178</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>151.78133800000001</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>83.659380999999996</v>
+      </c>
+      <c r="I62">
+        <v>151781338</v>
+      </c>
+      <c r="J62">
+        <v>83659381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>249</v>
       </c>
       <c r="B63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61756</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>164006.772</v>
+        <v>164.00677200000001</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>89510.430999999997</v>
+        <v>89.510430999999997</v>
       </c>
       <c r="E63">
         <v>164006772</v>
@@ -4547,22 +6613,36 @@
       <c r="F63">
         <v>89510431</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>163.36285699999999</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>84.961415000000002</v>
+      </c>
+      <c r="I63">
+        <v>163362857</v>
+      </c>
+      <c r="J63">
+        <v>84961415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
       <c r="B64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63760</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>185468.62899999999</v>
+        <v>185.46862899999999</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>100400.943</v>
+        <v>100.400943</v>
       </c>
       <c r="E64">
         <v>185468629</v>
@@ -4570,22 +6650,36 @@
       <c r="F64">
         <v>100400943</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>173.175546</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>91.995732000000004</v>
+      </c>
+      <c r="I64">
+        <v>173175546</v>
+      </c>
+      <c r="J64">
+        <v>91995732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>257</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65796</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>187437.22899999999</v>
+        <v>187.437229</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>99953.659</v>
+        <v>99.953659000000002</v>
       </c>
       <c r="E65">
         <v>187437229</v>
@@ -4593,22 +6687,36 @@
       <c r="F65">
         <v>99953659</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>184.395973</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>94.776437999999999</v>
+      </c>
+      <c r="I65">
+        <v>184395973</v>
+      </c>
+      <c r="J65">
+        <v>94776438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>261</v>
       </c>
       <c r="B66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67864</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>187396.00599999999</v>
+        <v>187.396006</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>141899.48000000001</v>
+        <v>141.89948000000001</v>
       </c>
       <c r="E66">
         <v>187396006</v>
@@ -4616,22 +6724,36 @@
       <c r="F66">
         <v>141899480</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>201.842727</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>99.775816000000006</v>
+      </c>
+      <c r="I66">
+        <v>201842727</v>
+      </c>
+      <c r="J66">
+        <v>99775816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>265</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69964</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C100" si="3">E67/1000</f>
-        <v>205535.03099999999</v>
+        <f t="shared" ref="C67:C100" si="5">E67/1000000</f>
+        <v>205.535031</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D100" si="4">F67/1000</f>
-        <v>106939.424</v>
+        <f t="shared" ref="D67:D100" si="6">F67/1000000</f>
+        <v>106.939424</v>
       </c>
       <c r="E67">
         <v>205535031</v>
@@ -4639,22 +6761,36 @@
       <c r="F67">
         <v>106939424</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" ref="G67:G100" si="7">I67/1000000</f>
+        <v>213.831231</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H100" si="8">J67/1000000</f>
+        <v>104.100809</v>
+      </c>
+      <c r="I67">
+        <v>213831231</v>
+      </c>
+      <c r="J67">
+        <v>104100809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B100" si="5">A68*A68-A68+4</f>
+        <f t="shared" ref="B68:B100" si="9">A68*A68-A68+4</f>
         <v>72096</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
-        <v>186103.34700000001</v>
+        <f t="shared" si="5"/>
+        <v>186.10334700000001</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
-        <v>98244.013000000006</v>
+        <f t="shared" si="6"/>
+        <v>98.244012999999995</v>
       </c>
       <c r="E68">
         <v>186103347</v>
@@ -4662,22 +6798,36 @@
       <c r="F68">
         <v>98244013</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="7"/>
+        <v>229.01506900000001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>112.309623</v>
+      </c>
+      <c r="I68">
+        <v>229015069</v>
+      </c>
+      <c r="J68">
+        <v>112309623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
       <c r="B69">
+        <f t="shared" si="9"/>
+        <v>74260</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="5"/>
-        <v>74260</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
-        <v>196273.076</v>
+        <v>196.273076</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
-        <v>99882.422000000006</v>
+        <f t="shared" si="6"/>
+        <v>99.882422000000005</v>
       </c>
       <c r="E69">
         <v>196273076</v>
@@ -4685,22 +6835,36 @@
       <c r="F69">
         <v>99882422</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" si="7"/>
+        <v>241.51828</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>120.19169599999999</v>
+      </c>
+      <c r="I69">
+        <v>241518280</v>
+      </c>
+      <c r="J69">
+        <v>120191696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>277</v>
       </c>
       <c r="B70">
+        <f t="shared" si="9"/>
+        <v>76456</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="5"/>
-        <v>76456</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>211071.50399999999</v>
+        <v>211.071504</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
-        <v>109461.94</v>
+        <f t="shared" si="6"/>
+        <v>109.46194</v>
       </c>
       <c r="E70">
         <v>211071504</v>
@@ -4708,22 +6872,36 @@
       <c r="F70">
         <v>109461940</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="7"/>
+        <v>254.37079499999999</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>124.593531</v>
+      </c>
+      <c r="I70">
+        <v>254370795</v>
+      </c>
+      <c r="J70">
+        <v>124593531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>281</v>
       </c>
       <c r="B71">
+        <f t="shared" si="9"/>
+        <v>78684</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="5"/>
-        <v>78684</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>230297.133</v>
+        <v>230.297133</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
-        <v>121538.861</v>
+        <f t="shared" si="6"/>
+        <v>121.538861</v>
       </c>
       <c r="E71">
         <v>230297133</v>
@@ -4731,22 +6909,36 @@
       <c r="F71">
         <v>121538861</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>283.69847600000003</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>134.46882299999999</v>
+      </c>
+      <c r="I71">
+        <v>283698476</v>
+      </c>
+      <c r="J71">
+        <v>134468823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>285</v>
       </c>
       <c r="B72">
+        <f t="shared" si="9"/>
+        <v>80944</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="5"/>
-        <v>80944</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>234660.636</v>
+        <v>234.66063600000001</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
-        <v>123092.216</v>
+        <f t="shared" si="6"/>
+        <v>123.09221599999999</v>
       </c>
       <c r="E72">
         <v>234660636</v>
@@ -4754,22 +6946,36 @@
       <c r="F72">
         <v>123092216</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="7"/>
+        <v>278.55016499999999</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>139.460891</v>
+      </c>
+      <c r="I72">
+        <v>278550165</v>
+      </c>
+      <c r="J72">
+        <v>139460891</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>289</v>
       </c>
       <c r="B73">
+        <f t="shared" si="9"/>
+        <v>83236</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="5"/>
-        <v>83236</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
-        <v>274474.73700000002</v>
+        <v>274.474737</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
-        <v>128809.872</v>
+        <f t="shared" si="6"/>
+        <v>128.80987200000001</v>
       </c>
       <c r="E73">
         <v>274474737</v>
@@ -4777,22 +6983,36 @@
       <c r="F73">
         <v>128809872</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f t="shared" si="7"/>
+        <v>297.82738799999998</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>142.52643499999999</v>
+      </c>
+      <c r="I73">
+        <v>297827388</v>
+      </c>
+      <c r="J73">
+        <v>142526435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>293</v>
       </c>
       <c r="B74">
+        <f t="shared" si="9"/>
+        <v>85560</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="5"/>
-        <v>85560</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>243682.666</v>
+        <v>243.68266600000001</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
-        <v>127778.137</v>
+        <f t="shared" si="6"/>
+        <v>127.778137</v>
       </c>
       <c r="E74">
         <v>243682666</v>
@@ -4800,22 +7020,36 @@
       <c r="F74">
         <v>127778137</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" si="7"/>
+        <v>312.00826899999998</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="8"/>
+        <v>150.00240400000001</v>
+      </c>
+      <c r="I74">
+        <v>312008269</v>
+      </c>
+      <c r="J74">
+        <v>150002404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>297</v>
       </c>
       <c r="B75">
+        <f t="shared" si="9"/>
+        <v>87916</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="5"/>
-        <v>87916</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>255444.80499999999</v>
+        <v>255.444805</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
-        <v>136640.163</v>
+        <f t="shared" si="6"/>
+        <v>136.640163</v>
       </c>
       <c r="E75">
         <v>255444805</v>
@@ -4823,22 +7057,36 @@
       <c r="F75">
         <v>136640163</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>326.89016400000003</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="8"/>
+        <v>158.65608399999999</v>
+      </c>
+      <c r="I75">
+        <v>326890164</v>
+      </c>
+      <c r="J75">
+        <v>158656084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>301</v>
       </c>
       <c r="B76">
+        <f t="shared" si="9"/>
+        <v>90304</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="5"/>
-        <v>90304</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>267687.94900000002</v>
+        <v>267.687949</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
-        <v>151134.00899999999</v>
+        <f t="shared" si="6"/>
+        <v>151.13400899999999</v>
       </c>
       <c r="E76">
         <v>267687949</v>
@@ -4846,22 +7094,36 @@
       <c r="F76">
         <v>151134009</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>334.41672499999999</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="8"/>
+        <v>163.41429099999999</v>
+      </c>
+      <c r="I76">
+        <v>334416725</v>
+      </c>
+      <c r="J76">
+        <v>163414291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>305</v>
       </c>
       <c r="B77">
+        <f t="shared" si="9"/>
+        <v>92724</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="5"/>
-        <v>92724</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
-        <v>273560.62900000002</v>
+        <v>273.56062900000001</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
-        <v>145654.03899999999</v>
+        <f t="shared" si="6"/>
+        <v>145.65403900000001</v>
       </c>
       <c r="E77">
         <v>273560629</v>
@@ -4869,22 +7131,36 @@
       <c r="F77">
         <v>145654039</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>357.53106400000001</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="8"/>
+        <v>174.39779300000001</v>
+      </c>
+      <c r="I77">
+        <v>357531064</v>
+      </c>
+      <c r="J77">
+        <v>174397793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>309</v>
       </c>
       <c r="B78">
+        <f t="shared" si="9"/>
+        <v>95176</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="5"/>
-        <v>95176</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
-        <v>271781.25799999997</v>
+        <v>271.78125799999998</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
-        <v>142988.269</v>
+        <f t="shared" si="6"/>
+        <v>142.988269</v>
       </c>
       <c r="E78">
         <v>271781258</v>
@@ -4892,22 +7168,36 @@
       <c r="F78">
         <v>142988269</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>358.95623599999999</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="8"/>
+        <v>174.909729</v>
+      </c>
+      <c r="I78">
+        <v>358956236</v>
+      </c>
+      <c r="J78">
+        <v>174909729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>313</v>
       </c>
       <c r="B79">
+        <f t="shared" si="9"/>
+        <v>97660</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="5"/>
-        <v>97660</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
-        <v>270388.44699999999</v>
+        <v>270.38844699999999</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
-        <v>160372.95600000001</v>
+        <f t="shared" si="6"/>
+        <v>160.37295599999999</v>
       </c>
       <c r="E79">
         <v>270388447</v>
@@ -4915,22 +7205,36 @@
       <c r="F79">
         <v>160372956</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>391.07923699999998</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="8"/>
+        <v>178.106966</v>
+      </c>
+      <c r="I79">
+        <v>391079237</v>
+      </c>
+      <c r="J79">
+        <v>178106966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>317</v>
       </c>
       <c r="B80">
+        <f t="shared" si="9"/>
+        <v>100176</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="5"/>
-        <v>100176</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
-        <v>299526.00099999999</v>
+        <v>299.52600100000001</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
-        <v>157344.48699999999</v>
+        <f t="shared" si="6"/>
+        <v>157.34448699999999</v>
       </c>
       <c r="E80">
         <v>299526001</v>
@@ -4938,22 +7242,36 @@
       <c r="F80">
         <v>157344487</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>423.39928700000002</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="8"/>
+        <v>199.97318000000001</v>
+      </c>
+      <c r="I80">
+        <v>423399287</v>
+      </c>
+      <c r="J80">
+        <v>199973180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>321</v>
       </c>
       <c r="B81">
+        <f t="shared" si="9"/>
+        <v>102724</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="5"/>
-        <v>102724</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>311584.397</v>
+        <v>311.58439700000002</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
-        <v>162276.394</v>
+        <f t="shared" si="6"/>
+        <v>162.27639400000001</v>
       </c>
       <c r="E81">
         <v>311584397</v>
@@ -4961,22 +7279,36 @@
       <c r="F81">
         <v>162276394</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>413.74555099999998</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="8"/>
+        <v>185.833776</v>
+      </c>
+      <c r="I81">
+        <v>413745551</v>
+      </c>
+      <c r="J81">
+        <v>185833776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>325</v>
       </c>
       <c r="B82">
+        <f t="shared" si="9"/>
+        <v>105304</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="5"/>
-        <v>105304</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>318682.60499999998</v>
+        <v>318.68260500000002</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
-        <v>166387.20699999999</v>
+        <f t="shared" si="6"/>
+        <v>166.38720699999999</v>
       </c>
       <c r="E82">
         <v>318682605</v>
@@ -4984,22 +7316,36 @@
       <c r="F82">
         <v>166387207</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>427.88356399999998</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="8"/>
+        <v>192.894508</v>
+      </c>
+      <c r="I82">
+        <v>427883564</v>
+      </c>
+      <c r="J82">
+        <v>192894508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>329</v>
       </c>
       <c r="B83">
+        <f t="shared" si="9"/>
+        <v>107916</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="5"/>
-        <v>107916</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>357625.50599999999</v>
+        <v>357.62550599999997</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
-        <v>173423.23300000001</v>
+        <f t="shared" si="6"/>
+        <v>173.42323300000001</v>
       </c>
       <c r="E83">
         <v>357625506</v>
@@ -5007,22 +7353,36 @@
       <c r="F83">
         <v>173423233</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>477.92591399999998</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="8"/>
+        <v>201.59152399999999</v>
+      </c>
+      <c r="I83">
+        <v>477925914</v>
+      </c>
+      <c r="J83">
+        <v>201591524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>333</v>
       </c>
       <c r="B84">
+        <f t="shared" si="9"/>
+        <v>110560</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="5"/>
-        <v>110560</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>339898.48100000003</v>
+        <v>339.898481</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
-        <v>177437.75200000001</v>
+        <f t="shared" si="6"/>
+        <v>177.43775199999999</v>
       </c>
       <c r="E84">
         <v>339898481</v>
@@ -5030,22 +7390,36 @@
       <c r="F84">
         <v>177437752</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>468.83247699999998</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="8"/>
+        <v>213.16915900000001</v>
+      </c>
+      <c r="I84">
+        <v>468832477</v>
+      </c>
+      <c r="J84">
+        <v>213169159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>337</v>
       </c>
       <c r="B85">
+        <f t="shared" si="9"/>
+        <v>113236</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="5"/>
-        <v>113236</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>352339.092</v>
+        <v>352.33909199999999</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
-        <v>183526.83199999999</v>
+        <f t="shared" si="6"/>
+        <v>183.52683200000001</v>
       </c>
       <c r="E85">
         <v>352339092</v>
@@ -5053,22 +7427,36 @@
       <c r="F85">
         <v>183526832</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>517.65767500000004</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="8"/>
+        <v>232.562297</v>
+      </c>
+      <c r="I85">
+        <v>517657675</v>
+      </c>
+      <c r="J85">
+        <v>232562297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>341</v>
       </c>
       <c r="B86">
+        <f t="shared" si="9"/>
+        <v>115944</v>
+      </c>
+      <c r="C86">
         <f t="shared" si="5"/>
-        <v>115944</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
-        <v>413947.19</v>
+        <v>413.94718999999998</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
-        <v>195905.18100000001</v>
+        <f t="shared" si="6"/>
+        <v>195.905181</v>
       </c>
       <c r="E86">
         <v>413947190</v>
@@ -5076,22 +7464,36 @@
       <c r="F86">
         <v>195905181</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>545.50459599999999</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="8"/>
+        <v>273.55397099999999</v>
+      </c>
+      <c r="I86">
+        <v>545504596</v>
+      </c>
+      <c r="J86">
+        <v>273553971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>345</v>
       </c>
       <c r="B87">
+        <f t="shared" si="9"/>
+        <v>118684</v>
+      </c>
+      <c r="C87">
         <f t="shared" si="5"/>
-        <v>118684</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
-        <v>381529.2</v>
+        <v>381.5292</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
-        <v>197390.242</v>
+        <f t="shared" si="6"/>
+        <v>197.390242</v>
       </c>
       <c r="E87">
         <v>381529200</v>
@@ -5099,22 +7501,36 @@
       <c r="F87">
         <v>197390242</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>548.17069100000003</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="8"/>
+        <v>244.65482299999999</v>
+      </c>
+      <c r="I87">
+        <v>548170691</v>
+      </c>
+      <c r="J87">
+        <v>244654823</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>349</v>
       </c>
       <c r="B88">
+        <f t="shared" si="9"/>
+        <v>121456</v>
+      </c>
+      <c r="C88">
         <f t="shared" si="5"/>
-        <v>121456</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
-        <v>390456.66</v>
+        <v>390.45666</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
-        <v>205671.59299999999</v>
+        <f t="shared" si="6"/>
+        <v>205.671593</v>
       </c>
       <c r="E88">
         <v>390456660</v>
@@ -5122,22 +7538,36 @@
       <c r="F88">
         <v>205671593</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>560.92409699999996</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>251.43539699999999</v>
+      </c>
+      <c r="I88">
+        <v>560924097</v>
+      </c>
+      <c r="J88">
+        <v>251435397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>353</v>
       </c>
       <c r="B89">
+        <f t="shared" si="9"/>
+        <v>124260</v>
+      </c>
+      <c r="C89">
         <f t="shared" si="5"/>
-        <v>124260</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
-        <v>394088.33199999999</v>
+        <v>394.08833199999998</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
-        <v>207909.495</v>
+        <f t="shared" si="6"/>
+        <v>207.90949499999999</v>
       </c>
       <c r="E89">
         <v>394088332</v>
@@ -5145,22 +7575,36 @@
       <c r="F89">
         <v>207909495</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>590.11699999999996</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>259.86667599999998</v>
+      </c>
+      <c r="I89">
+        <v>590117000</v>
+      </c>
+      <c r="J89">
+        <v>259866676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>357</v>
       </c>
       <c r="B90">
+        <f t="shared" si="9"/>
+        <v>127096</v>
+      </c>
+      <c r="C90">
         <f t="shared" si="5"/>
-        <v>127096</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="3"/>
-        <v>456543.15899999999</v>
+        <v>456.543159</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
-        <v>212778.13099999999</v>
+        <f t="shared" si="6"/>
+        <v>212.778131</v>
       </c>
       <c r="E90">
         <v>456543159</v>
@@ -5168,22 +7612,36 @@
       <c r="F90">
         <v>212778131</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>590.78189099999997</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>264.83392199999997</v>
+      </c>
+      <c r="I90">
+        <v>590781891</v>
+      </c>
+      <c r="J90">
+        <v>264833922</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>361</v>
       </c>
       <c r="B91">
+        <f t="shared" si="9"/>
+        <v>129964</v>
+      </c>
+      <c r="C91">
         <f t="shared" si="5"/>
-        <v>129964</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="3"/>
-        <v>421506.75699999998</v>
+        <v>421.50675699999999</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
-        <v>219809.905</v>
+        <f t="shared" si="6"/>
+        <v>219.80990499999999</v>
       </c>
       <c r="E91">
         <v>421506757</v>
@@ -5191,22 +7649,36 @@
       <c r="F91">
         <v>219809905</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>603.61515299999996</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>315.38574899999998</v>
+      </c>
+      <c r="I91">
+        <v>603615153</v>
+      </c>
+      <c r="J91">
+        <v>315385749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>365</v>
       </c>
       <c r="B92">
+        <f t="shared" si="9"/>
+        <v>132864</v>
+      </c>
+      <c r="C92">
         <f t="shared" si="5"/>
-        <v>132864</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="3"/>
-        <v>430297.45199999999</v>
+        <v>430.29745200000002</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
-        <v>225145.40700000001</v>
+        <f t="shared" si="6"/>
+        <v>225.14540700000001</v>
       </c>
       <c r="E92">
         <v>430297452</v>
@@ -5214,22 +7686,36 @@
       <c r="F92">
         <v>225145407</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>647.58042599999999</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>297.66064499999999</v>
+      </c>
+      <c r="I92">
+        <v>647580426</v>
+      </c>
+      <c r="J92">
+        <v>297660645</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>369</v>
       </c>
       <c r="B93">
+        <f t="shared" si="9"/>
+        <v>135796</v>
+      </c>
+      <c r="C93">
         <f t="shared" si="5"/>
-        <v>135796</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="3"/>
-        <v>452257.06699999998</v>
+        <v>452.25706700000001</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
-        <v>232762.853</v>
+        <f t="shared" si="6"/>
+        <v>232.76285300000001</v>
       </c>
       <c r="E93">
         <v>452257067</v>
@@ -5237,22 +7723,36 @@
       <c r="F93">
         <v>232762853</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>657.02618500000005</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="8"/>
+        <v>288.34586300000001</v>
+      </c>
+      <c r="I93">
+        <v>657026185</v>
+      </c>
+      <c r="J93">
+        <v>288345863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>373</v>
       </c>
       <c r="B94">
+        <f t="shared" si="9"/>
+        <v>138760</v>
+      </c>
+      <c r="C94">
         <f t="shared" si="5"/>
-        <v>138760</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="3"/>
-        <v>464069.10399999999</v>
+        <v>464.06910399999998</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
-        <v>243823.20499999999</v>
+        <f t="shared" si="6"/>
+        <v>243.823205</v>
       </c>
       <c r="E94">
         <v>464069104</v>
@@ -5260,22 +7760,36 @@
       <c r="F94">
         <v>243823205</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>682.59106499999996</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="8"/>
+        <v>306.57424900000001</v>
+      </c>
+      <c r="I94">
+        <v>682591065</v>
+      </c>
+      <c r="J94">
+        <v>306574249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>377</v>
       </c>
       <c r="B95">
+        <f t="shared" si="9"/>
+        <v>141756</v>
+      </c>
+      <c r="C95">
         <f t="shared" si="5"/>
-        <v>141756</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="3"/>
-        <v>548296.49399999995</v>
+        <v>548.29649400000005</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
-        <v>257051.49</v>
+        <f t="shared" si="6"/>
+        <v>257.05149</v>
       </c>
       <c r="E95">
         <v>548296494</v>
@@ -5283,22 +7797,36 @@
       <c r="F95">
         <v>257051490</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="7"/>
+        <v>707.82632100000001</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>312.05435999999997</v>
+      </c>
+      <c r="I95">
+        <v>707826321</v>
+      </c>
+      <c r="J95">
+        <v>312054360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>401</v>
       </c>
       <c r="B96">
+        <f t="shared" si="9"/>
+        <v>160404</v>
+      </c>
+      <c r="C96">
         <f t="shared" si="5"/>
-        <v>160404</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="3"/>
-        <v>621657.27899999998</v>
+        <v>621.65727900000002</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
-        <v>328265.38799999998</v>
+        <f t="shared" si="6"/>
+        <v>328.26538799999997</v>
       </c>
       <c r="E96">
         <v>621657279</v>
@@ -5306,22 +7834,36 @@
       <c r="F96">
         <v>328265388</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="7"/>
+        <v>897.96914900000002</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="8"/>
+        <v>418.886684</v>
+      </c>
+      <c r="I96">
+        <v>897969149</v>
+      </c>
+      <c r="J96">
+        <v>418886684</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>501</v>
       </c>
       <c r="B97">
+        <f t="shared" si="9"/>
+        <v>250504</v>
+      </c>
+      <c r="C97">
         <f t="shared" si="5"/>
-        <v>250504</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="3"/>
-        <v>1190311.382</v>
+        <v>1190.3113820000001</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
-        <v>544361.03899999999</v>
+        <f t="shared" si="6"/>
+        <v>544.36103900000001</v>
       </c>
       <c r="E97">
         <v>1190311382</v>
@@ -5329,22 +7871,36 @@
       <c r="F97">
         <v>544361039</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f t="shared" si="7"/>
+        <v>1873.5884530000001</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="8"/>
+        <v>795.63056400000005</v>
+      </c>
+      <c r="I97">
+        <v>1873588453</v>
+      </c>
+      <c r="J97">
+        <v>795630564</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>601</v>
       </c>
       <c r="B98">
+        <f t="shared" si="9"/>
+        <v>360604</v>
+      </c>
+      <c r="C98">
         <f t="shared" si="5"/>
-        <v>360604</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="3"/>
-        <v>2012949.1229999999</v>
+        <v>2012.9491230000001</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
-        <v>948648.201</v>
+        <f t="shared" si="6"/>
+        <v>948.64820099999997</v>
       </c>
       <c r="E98">
         <v>2012949123</v>
@@ -5352,22 +7908,36 @@
       <c r="F98">
         <v>948648201</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="7"/>
+        <v>3471.137303</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="8"/>
+        <v>1465.2739710000001</v>
+      </c>
+      <c r="I98">
+        <v>3471137303</v>
+      </c>
+      <c r="J98">
+        <v>1465273971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>701</v>
       </c>
       <c r="B99">
+        <f t="shared" si="9"/>
+        <v>490704</v>
+      </c>
+      <c r="C99">
         <f t="shared" si="5"/>
-        <v>490704</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="3"/>
-        <v>3655367.6949999998</v>
+        <v>3655.3676949999999</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
-        <v>1552894.22</v>
+        <f t="shared" si="6"/>
+        <v>1552.8942199999999</v>
       </c>
       <c r="E99">
         <v>3655367695</v>
@@ -5375,28 +7945,56 @@
       <c r="F99">
         <v>1552894220</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="7"/>
+        <v>5890.4434799999999</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>2356.7338209999998</v>
+      </c>
+      <c r="I99">
+        <v>5890443480</v>
+      </c>
+      <c r="J99">
+        <v>2356733821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>801</v>
       </c>
       <c r="B100">
+        <f t="shared" si="9"/>
+        <v>640804</v>
+      </c>
+      <c r="C100">
         <f t="shared" si="5"/>
-        <v>640804</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="3"/>
-        <v>6084645.0159999998</v>
+        <v>6084.6450160000004</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
-        <v>2504769.574</v>
+        <f t="shared" si="6"/>
+        <v>2504.7695739999999</v>
       </c>
       <c r="E100">
         <v>6084645016</v>
       </c>
       <c r="F100">
         <v>2504769574</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>10152.338523</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="8"/>
+        <v>4067.4691619999999</v>
+      </c>
+      <c r="I100">
+        <v>10152338523</v>
+      </c>
+      <c r="J100">
+        <v>4067469162</v>
       </c>
     </row>
   </sheetData>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Дейкстра</t>
   </si>
@@ -32,12 +32,124 @@
   <si>
     <t>Ширина уровня</t>
   </si>
+  <si>
+    <r>
+      <t>y = 3E-08x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0011x - 3,1272</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = 1E-08x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0008x - 1,4539</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = 2E-08x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0019x - 11,105</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = 8E-09x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0011x - 4,3626</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +297,23 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -532,8 +661,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -652,12 +784,27 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>measurements!$B$2:$B$95</c:f>
+              <c:f>measurements!$B$2:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -939,16 +1086,31 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>141756</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>160404</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>250504</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>360604</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>490704</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>640804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>measurements!$G$2:$G$95</c:f>
+              <c:f>measurements!$G$2:$G$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>5.8180000000000003E-2</c:v>
                 </c:pt>
@@ -1230,6 +1392,21 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>707.82632100000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>897.96914900000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1873.5884530000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3471.137303</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5890.4434799999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10152.338523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,12 +1443,27 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>measurements!$B$2:$B$95</c:f>
+              <c:f>measurements!$B$2:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -1553,16 +1745,31 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>141756</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>160404</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>250504</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>360604</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>490704</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>640804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>measurements!$H$2:$H$95</c:f>
+              <c:f>measurements!$H$2:$H$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>4.2358E-2</c:v>
                 </c:pt>
@@ -1844,6 +2051,21 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>312.05435999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>418.886684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>795.63056400000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1465.2739710000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2356.7338209999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4067.4691619999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,10 +3593,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37875913666322092"/>
-          <c:y val="0.84281763662223785"/>
-          <c:w val="9.5501041048086141E-2"/>
-          <c:h val="9.807690239837337E-2"/>
+          <c:x val="0.45449981029366715"/>
+          <c:y val="0.83288591719331173"/>
+          <c:w val="0.15336404400366815"/>
+          <c:h val="0.10055983225560493"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4297,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M33" sqref="M32:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,7 +5111,7 @@
         <v>2225241</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
@@ -4926,7 +5148,7 @@
         <v>2887801</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69</v>
       </c>
@@ -4963,7 +5185,7 @@
         <v>2886189</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
@@ -5000,7 +5222,7 @@
         <v>3342910</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>77</v>
       </c>
@@ -5037,7 +5259,7 @@
         <v>3508208</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>81</v>
       </c>
@@ -5074,7 +5296,7 @@
         <v>4672831</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>85</v>
       </c>
@@ -5111,7 +5333,7 @@
         <v>4761699</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>89</v>
       </c>
@@ -5148,7 +5370,7 @@
         <v>5913929</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>93</v>
       </c>
@@ -5185,7 +5407,7 @@
         <v>5139365</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>97</v>
       </c>
@@ -5222,7 +5444,7 @@
         <v>7609220</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>101</v>
       </c>
@@ -5259,7 +5481,7 @@
         <v>7092160</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>105</v>
       </c>
@@ -5296,7 +5518,7 @@
         <v>9295207</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>109</v>
       </c>
@@ -5333,7 +5555,7 @@
         <v>8506462</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>113</v>
       </c>
@@ -5370,7 +5592,7 @@
         <v>11023467</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>117</v>
       </c>
@@ -5407,7 +5629,7 @@
         <v>12629536</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
@@ -5444,7 +5666,7 @@
         <v>11916320</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>125</v>
       </c>
@@ -5480,8 +5702,14 @@
       <c r="J32">
         <v>12052221</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>129</v>
       </c>
@@ -5517,8 +5745,14 @@
       <c r="J33">
         <v>13118430</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>133</v>
       </c>
@@ -5555,7 +5789,7 @@
         <v>15211802</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>137</v>
       </c>
@@ -5592,7 +5826,7 @@
         <v>17763307</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>141</v>
       </c>
@@ -5629,7 +5863,7 @@
         <v>20731501</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>145</v>
       </c>
@@ -5666,7 +5900,7 @@
         <v>22310671</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>149</v>
       </c>
@@ -5703,7 +5937,7 @@
         <v>20730854</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>153</v>
       </c>
@@ -5740,7 +5974,7 @@
         <v>30551831</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>157</v>
       </c>
@@ -5777,7 +6011,7 @@
         <v>23565379</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>161</v>
       </c>
@@ -5814,7 +6048,7 @@
         <v>26323385</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>165</v>
       </c>
@@ -5851,7 +6085,7 @@
         <v>27869375</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>169</v>
       </c>
@@ -5888,7 +6122,7 @@
         <v>28646582</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>173</v>
       </c>
@@ -5925,7 +6159,7 @@
         <v>31825714</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>177</v>
       </c>
@@ -5962,7 +6196,7 @@
         <v>31865264</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>181</v>
       </c>
@@ -5999,7 +6233,7 @@
         <v>33618395</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>185</v>
       </c>
@@ -6036,7 +6270,7 @@
         <v>35145204</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>189</v>
       </c>
